--- a/MyWorkbook.xlsx
+++ b/MyWorkbook.xlsx
@@ -14,16 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Names Of Schedules</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Date Completed</t>
+  </si>
+  <si>
+    <t>2021-6-23</t>
+  </si>
+  <si>
+    <t>huh</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>Will this show up</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,16 +62,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -48,12 +102,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -356,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/MyWorkbook.xlsx
+++ b/MyWorkbook.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Names Of Schedules</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>Will this show up</t>
+  </si>
+  <si>
+    <t>I can't fake it</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>Fly High</t>
   </si>
 </sst>
 </file>
@@ -54,13 +63,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -124,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +169,24 @@
       <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/MyWorkbook.xlsx
+++ b/MyWorkbook.xlsx
@@ -8,22 +8,108 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="To Learn this Summer" r:id="rId6" sheetId="2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>List Of Schedule Names</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+  <si>
+    <t>Names Of Schedules</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>Date Completed</t>
+  </si>
+  <si>
+    <t>2021-6-23</t>
+  </si>
+  <si>
+    <t>huh</t>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>Will this show up</t>
+  </si>
+  <si>
+    <t>I can't fake it</t>
+  </si>
+  <si>
+    <t>yo</t>
+  </si>
+  <si>
+    <t>Fly High</t>
+  </si>
+  <si>
+    <t>2021-7-1</t>
+  </si>
+  <si>
+    <t>2021-7-20</t>
+  </si>
+  <si>
+    <t>Basic HTML</t>
+  </si>
+  <si>
+    <t>Using W3Schools, Code Academy, and other video sources. Learn and be able to create a basic website display</t>
+  </si>
+  <si>
+    <t>To Learn this Summer</t>
+  </si>
+  <si>
+    <t>2021-8-1</t>
+  </si>
+  <si>
+    <t>Learn CSS</t>
+  </si>
+  <si>
+    <t>To customize the HTML I learned</t>
+  </si>
+  <si>
+    <t>2021-8-10</t>
+  </si>
+  <si>
+    <t>Learn JavaScript</t>
+  </si>
+  <si>
+    <t>Not expecting that in depth, but enough to create a discord bot</t>
+  </si>
+  <si>
+    <t>2021-6-27</t>
+  </si>
+  <si>
+    <t>2021-8-31</t>
+  </si>
+  <si>
+    <t>Build A Java Project</t>
+  </si>
+  <si>
+    <t>Commit to Git. Hopefully I can build something good enough to list as a side project on a resume</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,23 +118,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="43"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -56,13 +184,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,24 +547,141 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="45.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="54" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.3359375" customWidth="true"/>
+    <col min="2" max="2" width="19.3359375" customWidth="true"/>
+    <col min="3" max="3" width="36.5234375" customWidth="true"/>
+    <col min="4" max="4" width="66.6015625" customWidth="true"/>
+    <col min="5" max="5" width="21.484375" customWidth="true"/>
+    <col min="6" max="6" width="25.78125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45.0" customHeight="true">
+      <c r="A1" t="s" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="13">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="13">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="13">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="13">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="40.0" customHeight="true">
+      <c r="A2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" ht="40.0" customHeight="true">
+      <c r="A3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" ht="40.0" customHeight="true">
+      <c r="A4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" ht="40.0" customHeight="true">
+      <c r="A5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/MyWorkbook.xlsx
+++ b/MyWorkbook.xlsx
@@ -8,14 +8,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="To Learn this Summer" r:id="rId6" sheetId="2"/>
+    <sheet name="To Learn This Summer" r:id="rId6" sheetId="2"/>
+    <sheet name="Project to-do-list" r:id="rId7" sheetId="3"/>
+    <sheet name="Misc Deadlines" r:id="rId8" sheetId="4"/>
+    <sheet name="Do During The Summer" r:id="rId10" sheetId="5"/>
+    <sheet name="Testing stuff" r:id="rId9" sheetId="6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3873" uniqueCount="125">
   <si>
     <t>Names Of Schedules</t>
   </si>
@@ -102,6 +106,294 @@
   </si>
   <si>
     <t>Commit to Git. Hopefully I can build something good enough to list as a side project on a resume</t>
+  </si>
+  <si>
+    <t>2021-7-5</t>
+  </si>
+  <si>
+    <t>Get Better At Typing</t>
+  </si>
+  <si>
+    <t>Using the site Shari showed me. Practice and learn to type with all fingers without looking at the keyboard</t>
+  </si>
+  <si>
+    <t>Commit All Projects To GitHub</t>
+  </si>
+  <si>
+    <t>Including: ProgressLoggerExcel,</t>
+  </si>
+  <si>
+    <t>2021-6-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GROCERY: Move the key actions to the minigames </t>
+  </si>
+  <si>
+    <t>Instead of having all the moveUp/moveDown actions in the GameManager, replace it with a simple function transfering the keyEvent to the current minigame and dictating what the keys do within the minigames themselves</t>
+  </si>
+  <si>
+    <t>project to-do-list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BATTLE: Build The simple PvP game </t>
+  </si>
+  <si>
+    <t>The one I always wanted to build. Alternates between very short rounds where one player is the attacker and one player is the dodger. Create a Git repo starting from the beginning this time.</t>
+  </si>
+  <si>
+    <t>Including: ProgressLoggerExcel; CHRISTINE_ZHAO_FINAL_PROJECT_GROCERY_TRIP;</t>
+  </si>
+  <si>
+    <t>2021-8-15</t>
+  </si>
+  <si>
+    <t>Learn PHP</t>
+  </si>
+  <si>
+    <t>For websties? I think?</t>
+  </si>
+  <si>
+    <t>For websties? tbh I'm not sure what php is exactly</t>
+  </si>
+  <si>
+    <t>2021-7-13</t>
+  </si>
+  <si>
+    <t>2021-7-14</t>
+  </si>
+  <si>
+    <t>2021-7-25</t>
+  </si>
+  <si>
+    <t>2021-8-24</t>
+  </si>
+  <si>
+    <t>2021-6-26</t>
+  </si>
+  <si>
+    <t>Adjust The Appearance Of Scheduler</t>
+  </si>
+  <si>
+    <t>Play around with colours, fonts, sizes, layouts...etc to make this Swing frame prettier and nicer to look at</t>
+  </si>
+  <si>
+    <t>2021-6-25</t>
+  </si>
+  <si>
+    <t>Add Check for invalid characters/symbols when creating schedules</t>
+  </si>
+  <si>
+    <t>So using a ? symbol and others doesnt cause an error</t>
+  </si>
+  <si>
+    <t>2021-6-28</t>
+  </si>
+  <si>
+    <t>Form for UTSC transfer to in-person opens</t>
+  </si>
+  <si>
+    <t>To transfer my fall courses from online to in-person</t>
+  </si>
+  <si>
+    <t>Misc Deadlines</t>
+  </si>
+  <si>
+    <t>2021-6-16</t>
+  </si>
+  <si>
+    <t>2021-7-15</t>
+  </si>
+  <si>
+    <t>Pay 2nd Rez Deposit</t>
+  </si>
+  <si>
+    <t>$1400</t>
+  </si>
+  <si>
+    <t>2021-7-24</t>
+  </si>
+  <si>
+    <t>Add a "display incomplete only" option</t>
+  </si>
+  <si>
+    <t>For when viewing the plan table. I think displaying all activities including complete ones may be too long and cluttered if one is interested only in future activities.</t>
+  </si>
+  <si>
+    <t>this ABCDEFGHIJKLMNOPQRSTUVWXYZ burning love dgdfg gd</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2021-9-31</t>
+  </si>
+  <si>
+    <t>Learn SQL (maybe)</t>
+  </si>
+  <si>
+    <t>MAYBE - since uni would be starting by then</t>
+  </si>
+  <si>
+    <t>Learn to cook</t>
+  </si>
+  <si>
+    <t>Learn the basics that would allow me to survive living on my own</t>
+  </si>
+  <si>
+    <t>To do this summer</t>
+  </si>
+  <si>
+    <t>Buy a laptop</t>
+  </si>
+  <si>
+    <t>For uni. Preferrably with a high end CPU, GPU and storage space. Dad says he knows a lot about hardware.</t>
+  </si>
+  <si>
+    <t>Improve my driving skills</t>
+  </si>
+  <si>
+    <t>Since the driving road test is in december</t>
+  </si>
+  <si>
+    <t>Add a rename schedule option</t>
+  </si>
+  <si>
+    <t>Similar to the edit activity panel, display it when pressing the rename button</t>
+  </si>
+  <si>
+    <t>Do during the summer</t>
+  </si>
+  <si>
+    <t>Do During The Summer</t>
+  </si>
+  <si>
+    <t>Project To-Do-List</t>
+  </si>
+  <si>
+    <t>Project To-do-list</t>
+  </si>
+  <si>
+    <t>cf</t>
+  </si>
+  <si>
+    <t>Project to-do-list</t>
+  </si>
+  <si>
+    <t>Add sort by complete/incomplete buttons to the update activity panels (MAYBE)</t>
+  </si>
+  <si>
+    <t>MAYBE because it would mean I can no longer select based in index alone</t>
+  </si>
+  <si>
+    <t>MAYBE because it would mean I can no longer select based on index alone</t>
+  </si>
+  <si>
+    <t>Add colours to the manage schedules buttons</t>
+  </si>
+  <si>
+    <t>Use colours so that the open schedule button stands out more in comparaison to the others, and the delete schedule button is less noticeable (gray?)</t>
+  </si>
+  <si>
+    <t>2021-6-31</t>
+  </si>
+  <si>
+    <t>Add a starting menu?</t>
+  </si>
+  <si>
+    <t>One that shows up when first running the program that displays all activities from all schedules that have an end date of today</t>
+  </si>
+  <si>
+    <t>Edit activity completion</t>
+  </si>
+  <si>
+    <t>Can set a complete activity as incomplete</t>
+  </si>
+  <si>
+    <t>Can set a completed activity as incomplete</t>
+  </si>
+  <si>
+    <t>To Learn This Summer</t>
+  </si>
+  <si>
+    <t>2021-6-29</t>
+  </si>
+  <si>
+    <t>Upload documents to OSAP</t>
+  </si>
+  <si>
+    <t>The parent signatures, my signature, PDF files</t>
+  </si>
+  <si>
+    <t>This schedule is to be delete MAYBE (if it works out in the end)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfg df hgh </t>
+  </si>
+  <si>
+    <t>Update Panel: Sort by incomplete</t>
+  </si>
+  <si>
+    <t>MAYBE: Since doing so would mean I could no longer get the selected activity using the index alone</t>
+  </si>
+  <si>
+    <t>long name long name long name long name long name long name long name</t>
+  </si>
+  <si>
+    <t>Set colours for the Today's activities headers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdffd s fdg dfg dg </t>
+  </si>
+  <si>
+    <t>012345678901234567899012345678</t>
+  </si>
+  <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
+    <t>Testing Stuff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f gd gfg </t>
+  </si>
+  <si>
+    <t>dgf</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>2021-6-30</t>
+  </si>
+  <si>
+    <t>yesterday ends tomorrow</t>
+  </si>
+  <si>
+    <t>to be deleted</t>
+  </si>
+  <si>
+    <t>completed yesterday</t>
+  </si>
+  <si>
+    <t>Testing stuff</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>today1</t>
+  </si>
+  <si>
+    <t>today2</t>
+  </si>
+  <si>
+    <t>today34</t>
+  </si>
+  <si>
+    <t>2021-7-7</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -109,13 +401,427 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="103">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <sz val="12.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="13.0"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -206,7 +912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +957,420 @@
       <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="2" borderId="4" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" horizontal="center" wrapText="true" shrinkToFit="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -547,7 +1667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
@@ -565,7 +1685,27 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -575,18 +1715,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.3359375" customWidth="true"/>
-    <col min="2" max="2" width="19.3359375" customWidth="true"/>
-    <col min="3" max="3" width="36.5234375" customWidth="true"/>
-    <col min="4" max="4" width="66.6015625" customWidth="true"/>
-    <col min="5" max="5" width="21.484375" customWidth="true"/>
-    <col min="6" max="6" width="25.78125" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.5234375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="66.6015625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.484375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.78125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="45.0" customHeight="true">
@@ -610,76 +1750,800 @@
       </c>
     </row>
     <row r="2" ht="40.0" customHeight="true">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="150"/>
+    </row>
+    <row r="3" ht="40.0" customHeight="true">
+      <c r="A3" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B3" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D3" s="149" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="150" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F3" s="150"/>
+    </row>
+    <row r="4" ht="40.0" customHeight="true">
+      <c r="A4" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="150" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="150"/>
+    </row>
+    <row r="5" ht="40.0" customHeight="true">
+      <c r="A5" s="150" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="150" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="149" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="150"/>
+    </row>
+    <row r="6" ht="40.0" customHeight="true">
+      <c r="A6" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="150" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="150"/>
+    </row>
+    <row r="7" ht="40.0" customHeight="true">
+      <c r="A7" s="150" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="149" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="150" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="150"/>
+    </row>
+    <row r="8" ht="40.0" customHeight="true">
+      <c r="A8" s="150" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="149" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="149" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="150" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="150"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.5234375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="66.6015625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.484375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.78125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45.0" customHeight="true">
+      <c r="A1" t="s" s="19">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="19">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="19">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="19">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="19">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="40.0" customHeight="true">
+      <c r="A2" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="137" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="138" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="3" ht="40.0" customHeight="true">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="137" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="138" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" ht="40.0" customHeight="true">
+      <c r="A4" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="137" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="40.0" customHeight="true">
+      <c r="A5" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="137" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="138" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" ht="40.0" customHeight="true">
+      <c r="A6" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="137" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="137" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" ht="40.0" customHeight="true">
+      <c r="A7" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="137" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="137" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="138" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="40.0" customHeight="true">
+      <c r="A8" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="137" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" ht="40.0" customHeight="true">
+      <c r="A9" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="137" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="138" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="138" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" ht="40.0" customHeight="true">
+      <c r="A10" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="15"/>
+      <c r="C10" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="138" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="138"/>
+    </row>
+    <row r="11" ht="40.0" customHeight="true">
+      <c r="A11" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="137" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="138"/>
+    </row>
+    <row r="12" ht="40.0" customHeight="true">
+      <c r="A12" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="137" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="138"/>
+    </row>
+    <row r="13" ht="40.0" customHeight="true">
+      <c r="A13" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="138" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="137" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="137" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="138" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="138"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.5234375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="66.6015625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.484375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.78125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45.0" customHeight="true">
+      <c r="A1" t="s" s="28">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="28">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="28">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="28">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="28">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s" s="28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="40.0" customHeight="true">
+      <c r="A2" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" ht="40.0" customHeight="true">
+      <c r="A3" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="99"/>
     </row>
     <row r="4" ht="40.0" customHeight="true">
-      <c r="A4" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="15"/>
+      <c r="A4" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="99"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.5234375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="66.6015625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.484375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.78125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45.0" customHeight="true">
+      <c r="A1" t="s" s="52">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="52">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="52">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="52">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="52">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s" s="52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="40.0" customHeight="true">
+      <c r="A2" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" ht="40.0" customHeight="true">
+      <c r="A3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="66"/>
+    </row>
+    <row r="4" ht="40.0" customHeight="true">
+      <c r="A4" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="19.3359375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.5234375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="66.6015625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.484375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.78125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="45.0" customHeight="true">
+      <c r="A1" t="s" s="124">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="124">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s" s="124">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s" s="124">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s" s="124">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s" s="124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="40.0" customHeight="true">
+      <c r="A2" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="152" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="153"/>
+    </row>
+    <row r="3" ht="40.0" customHeight="true">
+      <c r="A3" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="152" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="153" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" ht="40.0" customHeight="true">
+      <c r="A4" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="152" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="153"/>
     </row>
     <row r="5" ht="40.0" customHeight="true">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="15"/>
+      <c r="A5" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="152" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="153"/>
+    </row>
+    <row r="6" ht="40.0" customHeight="true">
+      <c r="A6" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="153"/>
+    </row>
+    <row r="7" ht="40.0" customHeight="true">
+      <c r="A7" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="152" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="153"/>
+    </row>
+    <row r="8" ht="40.0" customHeight="true">
+      <c r="A8" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="152" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="153"/>
+    </row>
+    <row r="9" ht="40.0" customHeight="true">
+      <c r="A9" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="153" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="153"/>
+    </row>
+    <row r="10" ht="40.0" customHeight="true">
+      <c r="A10" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="153" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="152" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="152" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="153"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
